--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,68 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42460</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -745,19 +749,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>50800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39400</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,20 +786,23 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>36800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,20 +824,23 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>14000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-30400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,28 +928,31 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -944,10 +964,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,43 +1019,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G17" s="3">
         <v>-2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,34 +1067,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="F18" s="3">
+        <v>700</v>
+      </c>
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1111,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1087,34 +1121,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1122,34 +1159,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>700</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G21" s="3">
         <v>3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1171,8 +1211,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1183,43 +1223,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
-        <v>200</v>
-      </c>
       <c r="F23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,31 +1276,34 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
-        <v>200</v>
-      </c>
       <c r="F26" s="3">
+        <v>800</v>
+      </c>
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
-        <v>200</v>
-      </c>
       <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,43 +1451,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="E29" s="3">
-        <v>21400</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G29" s="3">
         <v>-800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>17800</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
-        <v>74900</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
         <v>13300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1565,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,69 +1577,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
-        <v>21500</v>
-      </c>
       <c r="F33" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>75000</v>
-      </c>
       <c r="J33" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
-        <v>21500</v>
-      </c>
       <c r="F35" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>75000</v>
-      </c>
       <c r="J35" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42460</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E41" s="3">
         <v>23500</v>
       </c>
-      <c r="E41" s="3">
-        <v>35100</v>
-      </c>
       <c r="F41" s="3">
-        <v>66800</v>
+        <v>35200</v>
       </c>
       <c r="G41" s="3">
-        <v>50900</v>
+        <v>66900</v>
       </c>
       <c r="H41" s="3">
-        <v>56900</v>
+        <v>51000</v>
       </c>
       <c r="I41" s="3">
-        <v>62600</v>
+        <v>57000</v>
       </c>
       <c r="J41" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K41" s="3">
         <v>208500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,8 +1868,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1798,23 +1891,26 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1836,90 +1932,99 @@
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
         <v>11000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>21700</v>
-      </c>
       <c r="F45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
-        <v>22500</v>
-      </c>
       <c r="H45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E46" s="3">
         <v>23900</v>
       </c>
-      <c r="E46" s="3">
-        <v>56900</v>
-      </c>
       <c r="F46" s="3">
-        <v>67300</v>
+        <v>57000</v>
       </c>
       <c r="G46" s="3">
-        <v>73400</v>
+        <v>67400</v>
       </c>
       <c r="H46" s="3">
-        <v>58100</v>
+        <v>73500</v>
       </c>
       <c r="I46" s="3">
-        <v>80200</v>
+        <v>58200</v>
       </c>
       <c r="J46" s="3">
+        <v>80300</v>
+      </c>
+      <c r="K46" s="3">
         <v>275100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>126400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,69 +2058,75 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>13500</v>
       </c>
-      <c r="E48" s="3">
-        <v>13900</v>
-      </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25100</v>
       </c>
-      <c r="H48" s="3">
-        <v>22200</v>
-      </c>
       <c r="I48" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J48" s="3">
         <v>19800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,19 +2210,22 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>15500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2113,23 +2233,26 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39000</v>
+        <v>24300</v>
       </c>
       <c r="E54" s="3">
-        <v>72600</v>
+        <v>39100</v>
       </c>
       <c r="F54" s="3">
-        <v>83500</v>
+        <v>72700</v>
       </c>
       <c r="G54" s="3">
-        <v>100500</v>
+        <v>83600</v>
       </c>
       <c r="H54" s="3">
-        <v>82400</v>
+        <v>100600</v>
       </c>
       <c r="I54" s="3">
-        <v>102200</v>
+        <v>82500</v>
       </c>
       <c r="J54" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K54" s="3">
         <v>318000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>175400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>172200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,43 +2358,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>14800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2286,90 +2420,99 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G59" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>164500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1700</v>
       </c>
       <c r="F60" s="3">
         <v>1700</v>
       </c>
       <c r="G60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H60" s="3">
         <v>1400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1500</v>
       </c>
       <c r="I60" s="3">
         <v>1500</v>
       </c>
       <c r="J60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K60" s="3">
         <v>182400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2546,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2438,8 +2584,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1700</v>
       </c>
       <c r="F66" s="3">
         <v>1700</v>
       </c>
       <c r="G66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1500</v>
       </c>
       <c r="I66" s="3">
         <v>1500</v>
       </c>
       <c r="J66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K66" s="3">
         <v>182400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E72" s="3">
         <v>33900</v>
       </c>
-      <c r="E72" s="3">
-        <v>67500</v>
-      </c>
       <c r="F72" s="3">
+        <v>67600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>78600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>96700</v>
+      </c>
+      <c r="I72" s="3">
         <v>78500</v>
       </c>
-      <c r="G72" s="3">
-        <v>96600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>78400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>98100</v>
-      </c>
       <c r="J72" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K72" s="3">
         <v>133000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>126900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>120200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37200</v>
+        <v>22900</v>
       </c>
       <c r="E76" s="3">
-        <v>70900</v>
+        <v>37300</v>
       </c>
       <c r="F76" s="3">
-        <v>81800</v>
+        <v>71000</v>
       </c>
       <c r="G76" s="3">
-        <v>99100</v>
+        <v>82000</v>
       </c>
       <c r="H76" s="3">
-        <v>80900</v>
+        <v>99200</v>
       </c>
       <c r="I76" s="3">
-        <v>100700</v>
+        <v>81000</v>
       </c>
       <c r="J76" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K76" s="3">
         <v>135600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>130000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>123300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42460</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
-        <v>21500</v>
-      </c>
       <c r="F81" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>75000</v>
-      </c>
       <c r="J81" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,19 +3231,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
-        <v>400</v>
-      </c>
       <c r="F83" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
@@ -3054,22 +3253,25 @@
         <v>600</v>
       </c>
       <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
         <v>-4500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
-        <v>900</v>
-      </c>
       <c r="F89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G89" s="3">
         <v>2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3513,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3307,29 +3528,32 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,43 +3625,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E94" s="3">
         <v>21300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>32100</v>
+        <v>32200</v>
       </c>
       <c r="G94" s="3">
+        <v>32200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13600</v>
       </c>
-      <c r="I94" s="3">
-        <v>89300</v>
-      </c>
       <c r="J94" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K94" s="3">
         <v>128900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,43 +3681,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32500</v>
+        <v>-53400</v>
       </c>
       <c r="E96" s="3">
         <v>-32500</v>
       </c>
       <c r="F96" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-19500</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-19500</v>
       </c>
-      <c r="I96" s="3">
-        <v>-105300</v>
-      </c>
       <c r="J96" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,43 +3831,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32500</v>
+        <v>-53400</v>
       </c>
       <c r="E100" s="3">
         <v>-32500</v>
       </c>
       <c r="F100" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-19500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-19500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-106500</v>
-      </c>
       <c r="J100" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3638,59 +3887,65 @@
         <v>900</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-500</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
       </c>
       <c r="K101" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="L101" s="3">
         <v>-1200</v>
       </c>
       <c r="M101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11700</v>
       </c>
-      <c r="E102" s="3">
-        <v>-31600</v>
-      </c>
       <c r="F102" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="G102" s="3">
         <v>15900</v>
       </c>
-      <c r="G102" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>137800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,19 +756,22 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>50800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39400</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,20 +796,23 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>36800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,20 +837,23 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>14000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-30400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,31 +948,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -967,10 +987,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,46 +1046,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
-        <v>1300</v>
-      </c>
       <c r="F17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="3">
         <v>-700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,37 +1097,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
       <c r="F18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,37 +1155,40 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,37 +1196,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-500</v>
+        <v>-1500</v>
       </c>
       <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1214,8 +1254,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1226,46 +1266,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1000</v>
-      </c>
       <c r="F23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1276,34 +1322,37 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,46 +1512,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>6900</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>200</v>
+      </c>
+      <c r="G29" s="3">
         <v>22200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>17800</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>75100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>13300</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1577,75 +1647,81 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E41" s="3">
         <v>23900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>208500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,8 +1961,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1894,137 +1987,149 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>11000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>57000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>67400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>73500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>58200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>80300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>275100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>126400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,46 +2166,52 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2108,28 +2219,28 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,22 +2330,25 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>15500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>15600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2236,23 +2356,26 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E54" s="3">
         <v>24300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72700</v>
       </c>
-      <c r="G54" s="3">
-        <v>83600</v>
-      </c>
       <c r="H54" s="3">
-        <v>100600</v>
+        <v>83700</v>
       </c>
       <c r="I54" s="3">
-        <v>82500</v>
+        <v>100700</v>
       </c>
       <c r="J54" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K54" s="3">
         <v>102400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>318000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>175400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>172200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,160 +2489,173 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
       </c>
       <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>14800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>164500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1700</v>
       </c>
       <c r="G60" s="3">
         <v>1700</v>
       </c>
       <c r="H60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1500</v>
       </c>
       <c r="J60" s="3">
         <v>1500</v>
       </c>
       <c r="K60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="3">
         <v>182400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,8 +2692,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1700</v>
       </c>
       <c r="G66" s="3">
         <v>1700</v>
       </c>
       <c r="H66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I66" s="3">
         <v>1400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1500</v>
       </c>
       <c r="J66" s="3">
         <v>1500</v>
       </c>
       <c r="K66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="3">
         <v>182400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E72" s="3">
         <v>19500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>67600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>78600</v>
       </c>
-      <c r="H72" s="3">
-        <v>96700</v>
-      </c>
       <c r="I72" s="3">
-        <v>78500</v>
+        <v>96800</v>
       </c>
       <c r="J72" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K72" s="3">
         <v>98200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>133000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>126900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>120200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E76" s="3">
         <v>22900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82000</v>
       </c>
-      <c r="H76" s="3">
-        <v>99200</v>
-      </c>
       <c r="I76" s="3">
-        <v>81000</v>
+        <v>99300</v>
       </c>
       <c r="J76" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K76" s="3">
         <v>100800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>135600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>123300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3241,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
@@ -3256,22 +3455,25 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
+        <v>600</v>
+      </c>
+      <c r="K83" s="3">
         <v>-4500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3531,29 +3752,32 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>42000</v>
       </c>
-      <c r="E94" s="3">
-        <v>21300</v>
-      </c>
       <c r="F94" s="3">
-        <v>32200</v>
+        <v>21400</v>
       </c>
       <c r="G94" s="3">
         <v>32200</v>
       </c>
       <c r="H94" s="3">
+        <v>32200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>89500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>128900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,46 +3915,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-53400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-32500</v>
-      </c>
       <c r="F96" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-52100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19500</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-19500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-105400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,46 +4077,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-53400</v>
       </c>
-      <c r="E100" s="3">
-        <v>-32500</v>
-      </c>
       <c r="F100" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-52100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-19500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3884,68 +4133,74 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>900</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-500</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
       </c>
       <c r="L101" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="M101" s="3">
         <v>-1200</v>
       </c>
       <c r="N101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>137800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -2433,7 +2433,7 @@
         <v>72700</v>
       </c>
       <c r="H54" s="3">
-        <v>83700</v>
+        <v>83600</v>
       </c>
       <c r="I54" s="3">
         <v>100700</v>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -1530,7 +1530,7 @@
         <v>200</v>
       </c>
       <c r="G29" s="3">
-        <v>22200</v>
+        <v>22100</v>
       </c>
       <c r="H29" s="3">
         <v>-800</v>
@@ -1694,7 +1694,7 @@
         <v>-1100</v>
       </c>
       <c r="G33" s="3">
-        <v>23000</v>
+        <v>22900</v>
       </c>
       <c r="H33" s="3">
         <v>1400</v>
@@ -1776,7 +1776,7 @@
         <v>-1100</v>
       </c>
       <c r="G35" s="3">
-        <v>23000</v>
+        <v>22900</v>
       </c>
       <c r="H35" s="3">
         <v>1400</v>
@@ -1894,19 +1894,19 @@
         <v>23900</v>
       </c>
       <c r="F41" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="G41" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="H41" s="3">
-        <v>66900</v>
+        <v>66700</v>
       </c>
       <c r="I41" s="3">
-        <v>51000</v>
+        <v>50900</v>
       </c>
       <c r="J41" s="3">
-        <v>57000</v>
+        <v>56900</v>
       </c>
       <c r="K41" s="3">
         <v>62700</v>
@@ -2061,13 +2061,13 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>21800</v>
+        <v>21700</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>22600</v>
+        <v>22500</v>
       </c>
       <c r="J45" s="3">
         <v>1100</v>
@@ -2093,25 +2093,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24000</v>
+        <v>23900</v>
       </c>
       <c r="E46" s="3">
-        <v>24200</v>
+        <v>24100</v>
       </c>
       <c r="F46" s="3">
         <v>23900</v>
       </c>
       <c r="G46" s="3">
-        <v>57000</v>
+        <v>56900</v>
       </c>
       <c r="H46" s="3">
-        <v>67400</v>
+        <v>67300</v>
       </c>
       <c r="I46" s="3">
-        <v>73500</v>
+        <v>73400</v>
       </c>
       <c r="J46" s="3">
-        <v>58200</v>
+        <v>58000</v>
       </c>
       <c r="K46" s="3">
         <v>80300</v>
@@ -2193,7 +2193,7 @@
         <v>25100</v>
       </c>
       <c r="J48" s="3">
-        <v>22300</v>
+        <v>22200</v>
       </c>
       <c r="K48" s="3">
         <v>19800</v>
@@ -2348,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2421,25 +2421,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="E54" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="F54" s="3">
-        <v>39100</v>
+        <v>39000</v>
       </c>
       <c r="G54" s="3">
-        <v>72700</v>
+        <v>72500</v>
       </c>
       <c r="H54" s="3">
-        <v>83600</v>
+        <v>83500</v>
       </c>
       <c r="I54" s="3">
-        <v>100700</v>
+        <v>100400</v>
       </c>
       <c r="J54" s="3">
-        <v>82600</v>
+        <v>82400</v>
       </c>
       <c r="K54" s="3">
         <v>102400</v>
@@ -2590,7 +2590,7 @@
         <v>1600</v>
       </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
@@ -3087,7 +3087,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="E72" s="3">
         <v>19500</v>
@@ -3096,16 +3096,16 @@
         <v>33900</v>
       </c>
       <c r="G72" s="3">
-        <v>67600</v>
+        <v>67500</v>
       </c>
       <c r="H72" s="3">
-        <v>78600</v>
+        <v>78400</v>
       </c>
       <c r="I72" s="3">
-        <v>96800</v>
+        <v>96500</v>
       </c>
       <c r="J72" s="3">
-        <v>78600</v>
+        <v>78400</v>
       </c>
       <c r="K72" s="3">
         <v>98200</v>
@@ -3251,25 +3251,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E76" s="3">
         <v>22800</v>
       </c>
-      <c r="E76" s="3">
-        <v>22900</v>
-      </c>
       <c r="F76" s="3">
-        <v>37300</v>
+        <v>37200</v>
       </c>
       <c r="G76" s="3">
-        <v>71000</v>
+        <v>70800</v>
       </c>
       <c r="H76" s="3">
-        <v>82000</v>
+        <v>81800</v>
       </c>
       <c r="I76" s="3">
-        <v>99300</v>
+        <v>99000</v>
       </c>
       <c r="J76" s="3">
-        <v>81100</v>
+        <v>80900</v>
       </c>
       <c r="K76" s="3">
         <v>100800</v>
@@ -3388,7 +3388,7 @@
         <v>-1100</v>
       </c>
       <c r="G81" s="3">
-        <v>23000</v>
+        <v>22900</v>
       </c>
       <c r="H81" s="3">
         <v>1400</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>42000</v>
+        <v>41900</v>
       </c>
       <c r="F94" s="3">
-        <v>21400</v>
+        <v>21300</v>
       </c>
       <c r="G94" s="3">
-        <v>32200</v>
+        <v>32100</v>
       </c>
       <c r="H94" s="3">
-        <v>32200</v>
+        <v>32100</v>
       </c>
       <c r="I94" s="3">
         <v>-2900</v>
@@ -3925,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-53400</v>
+        <v>-53300</v>
       </c>
       <c r="F96" s="3">
-        <v>-32600</v>
+        <v>-32500</v>
       </c>
       <c r="G96" s="3">
-        <v>-52100</v>
+        <v>-52000</v>
       </c>
       <c r="H96" s="3">
         <v>-19500</v>
@@ -4089,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-53400</v>
+        <v>-53300</v>
       </c>
       <c r="F100" s="3">
-        <v>-32600</v>
+        <v>-32500</v>
       </c>
       <c r="G100" s="3">
-        <v>-52100</v>
+        <v>-52000</v>
       </c>
       <c r="H100" s="3">
         <v>-19500</v>
@@ -4171,19 +4171,19 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="F102" s="3">
         <v>-11700</v>
       </c>
       <c r="G102" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="H102" s="3">
         <v>15900</v>
       </c>
       <c r="I102" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="J102" s="3">
         <v>-5700</v>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42460</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -759,19 +763,22 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>50800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39400</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,20 +806,23 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>36800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,20 +850,23 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>14000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-30400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,34 +968,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -990,10 +1010,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,90 +1179,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1257,8 +1297,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1269,49 +1309,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1325,34 +1371,37 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1524,40 +1585,43 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>6900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>22100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>17800</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>75100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>13300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42460</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E41" s="3">
         <v>23700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23900</v>
       </c>
-      <c r="F41" s="3">
-        <v>23400</v>
-      </c>
       <c r="G41" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H41" s="3">
         <v>35100</v>
       </c>
-      <c r="H41" s="3">
-        <v>66700</v>
-      </c>
       <c r="I41" s="3">
+        <v>66800</v>
+      </c>
+      <c r="J41" s="3">
         <v>50900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>208500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,49 +2054,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2031,23 +2127,26 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>11000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2055,40 +2154,43 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
-        <v>21700</v>
-      </c>
       <c r="H45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2096,40 +2198,43 @@
         <v>23900</v>
       </c>
       <c r="E46" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F46" s="3">
         <v>24100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>56900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>67300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>58000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>275100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>126400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,8 +2274,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2178,40 +2286,43 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2222,28 +2333,28 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>15500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E54" s="3">
         <v>24000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24200</v>
       </c>
-      <c r="F54" s="3">
-        <v>39000</v>
-      </c>
       <c r="G54" s="3">
-        <v>72500</v>
+        <v>39100</v>
       </c>
       <c r="H54" s="3">
+        <v>72600</v>
+      </c>
+      <c r="I54" s="3">
         <v>83500</v>
       </c>
-      <c r="I54" s="3">
-        <v>100400</v>
-      </c>
       <c r="J54" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K54" s="3">
         <v>82400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>318000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>175400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>172200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,49 +2620,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
       </c>
       <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>14800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2557,23 +2691,26 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2581,81 +2718,87 @@
         <v>1300</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>164500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1700</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
       </c>
       <c r="I60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1500</v>
       </c>
       <c r="K60" s="3">
         <v>1500</v>
       </c>
       <c r="L60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M60" s="3">
         <v>182400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,8 +2838,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1700</v>
       </c>
       <c r="H66" s="3">
         <v>1700</v>
       </c>
       <c r="I66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1500</v>
       </c>
       <c r="K66" s="3">
         <v>1500</v>
       </c>
       <c r="L66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
         <v>182400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="E72" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F72" s="3">
         <v>19500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>67500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>78500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>96600</v>
+      </c>
+      <c r="K72" s="3">
         <v>78400</v>
       </c>
-      <c r="I72" s="3">
-        <v>96500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>78400</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>98200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>133000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>126900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>120200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E76" s="3">
         <v>22700</v>
       </c>
-      <c r="E76" s="3">
-        <v>22800</v>
-      </c>
       <c r="F76" s="3">
-        <v>37200</v>
+        <v>22900</v>
       </c>
       <c r="G76" s="3">
-        <v>70800</v>
+        <v>37300</v>
       </c>
       <c r="H76" s="3">
-        <v>81800</v>
+        <v>70900</v>
       </c>
       <c r="I76" s="3">
-        <v>99000</v>
+        <v>81900</v>
       </c>
       <c r="J76" s="3">
+        <v>99100</v>
+      </c>
+      <c r="K76" s="3">
         <v>80900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>135600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>130000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>123300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42460</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3443,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
@@ -3458,22 +3657,25 @@
         <v>600</v>
       </c>
       <c r="K83" s="3">
+        <v>600</v>
+      </c>
+      <c r="L83" s="3">
         <v>-4500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3755,29 +3976,32 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,8 +4085,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3867,40 +4097,43 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>41900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>21300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>32100</v>
       </c>
       <c r="H94" s="3">
         <v>32100</v>
       </c>
       <c r="I94" s="3">
+        <v>32100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>13600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>89500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>128900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3925,40 +4159,43 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-53300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-32500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-52000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19500</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-105400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,8 +4323,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4089,40 +4335,43 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-53300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-19500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4136,71 +4385,77 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-500</v>
       </c>
       <c r="L101" s="3">
         <v>-500</v>
       </c>
       <c r="M101" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="N101" s="3">
         <v>-1200</v>
       </c>
       <c r="O101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11700</v>
       </c>
-      <c r="G102" s="3">
-        <v>-15700</v>
-      </c>
       <c r="H102" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="I102" s="3">
         <v>15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>137800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,91 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -766,19 +770,22 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>50800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39400</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,20 +816,23 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>36800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,20 +863,23 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>14000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-30400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,8 +941,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,8 +988,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,26 +1002,26 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,10 +1033,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1082,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,96 +1213,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1300,8 +1340,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1312,52 +1352,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1368,40 +1414,43 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,52 +1634,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>6900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>22100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>17800</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>75100</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>13300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>5300</v>
-      </c>
       <c r="G33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
-        <v>22900</v>
-      </c>
       <c r="I33" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>5300</v>
-      </c>
       <c r="G35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
-        <v>22900</v>
-      </c>
       <c r="I35" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2055,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E41" s="3">
         <v>23500</v>
       </c>
-      <c r="E41" s="3">
-        <v>23700</v>
-      </c>
       <c r="F41" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="G41" s="3">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="H41" s="3">
-        <v>35100</v>
+        <v>23400</v>
       </c>
       <c r="I41" s="3">
-        <v>66800</v>
+        <v>35000</v>
       </c>
       <c r="J41" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K41" s="3">
         <v>50900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>208500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,8 +2147,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2083,26 +2176,29 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2130,111 +2226,120 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>11000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
-        <v>21800</v>
-      </c>
       <c r="I45" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F46" s="3">
         <v>23900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24000</v>
       </c>
-      <c r="F46" s="3">
-        <v>24100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>23900</v>
-      </c>
       <c r="H46" s="3">
-        <v>56900</v>
+        <v>23800</v>
       </c>
       <c r="I46" s="3">
-        <v>67300</v>
+        <v>56700</v>
       </c>
       <c r="J46" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K46" s="3">
         <v>73400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>58000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>275100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>126400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2277,8 +2382,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2289,40 +2397,43 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>13500</v>
-      </c>
       <c r="H48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>14300</v>
-      </c>
       <c r="J48" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K48" s="3">
         <v>25100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2336,28 +2447,28 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -2365,8 +2476,11 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,8 +2570,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2464,41 +2584,44 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>15500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="E54" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F54" s="3">
         <v>24000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24200</v>
       </c>
-      <c r="G54" s="3">
-        <v>39100</v>
-      </c>
       <c r="H54" s="3">
-        <v>72600</v>
+        <v>38900</v>
       </c>
       <c r="I54" s="3">
-        <v>83500</v>
+        <v>72300</v>
       </c>
       <c r="J54" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K54" s="3">
         <v>100500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>318000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>175400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>172200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,52 +2751,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>14800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2694,67 +2828,73 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
         <v>1300</v>
       </c>
       <c r="F59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>164500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2762,43 +2902,46 @@
         <v>1500</v>
       </c>
       <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1700</v>
       </c>
       <c r="I60" s="3">
         <v>1700</v>
       </c>
       <c r="J60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1500</v>
       </c>
       <c r="L60" s="3">
         <v>1500</v>
       </c>
       <c r="M60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N60" s="3">
         <v>182400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2841,8 +2984,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2885,8 +3031,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,8 +3172,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3026,43 +3184,46 @@
         <v>1500</v>
       </c>
       <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1700</v>
       </c>
       <c r="I66" s="3">
         <v>1700</v>
       </c>
       <c r="J66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1500</v>
       </c>
       <c r="L66" s="3">
         <v>1500</v>
       </c>
       <c r="M66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N66" s="3">
         <v>182400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E72" s="3">
         <v>19000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G72" s="3">
         <v>19400</v>
       </c>
-      <c r="F72" s="3">
-        <v>19500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>33900</v>
-      </c>
       <c r="H72" s="3">
-        <v>67500</v>
+        <v>33800</v>
       </c>
       <c r="I72" s="3">
-        <v>78500</v>
+        <v>67300</v>
       </c>
       <c r="J72" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K72" s="3">
         <v>96600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>98200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>133000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>126900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>120200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="E76" s="3">
-        <v>22700</v>
+        <v>22300</v>
       </c>
       <c r="F76" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="G76" s="3">
-        <v>37300</v>
+        <v>22800</v>
       </c>
       <c r="H76" s="3">
-        <v>70900</v>
+        <v>37100</v>
       </c>
       <c r="I76" s="3">
-        <v>81900</v>
+        <v>70600</v>
       </c>
       <c r="J76" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K76" s="3">
         <v>99100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>135600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>130000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>123300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>5300</v>
-      </c>
       <c r="G81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
-        <v>22900</v>
-      </c>
       <c r="I81" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +3828,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3645,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
@@ -3660,22 +3859,25 @@
         <v>600</v>
       </c>
       <c r="L83" s="3">
+        <v>600</v>
+      </c>
+      <c r="M83" s="3">
         <v>-4500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4176,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3979,29 +4200,32 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,8 +4315,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4100,40 +4330,43 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>41900</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>21300</v>
+        <v>41800</v>
       </c>
       <c r="H94" s="3">
-        <v>32100</v>
+        <v>21200</v>
       </c>
       <c r="I94" s="3">
-        <v>32100</v>
+        <v>32000</v>
       </c>
       <c r="J94" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>13600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>89500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>128900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4162,40 +4396,43 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-53300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-32500</v>
+        <v>-53100</v>
       </c>
       <c r="H96" s="3">
-        <v>-52000</v>
+        <v>-32400</v>
       </c>
       <c r="I96" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-19500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-105400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,57 +4569,63 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-53300</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-32500</v>
+        <v>-53100</v>
       </c>
       <c r="H100" s="3">
-        <v>-52000</v>
+        <v>-32400</v>
       </c>
       <c r="I100" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-19500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-106700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4388,74 +4637,80 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>900</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-500</v>
       </c>
       <c r="M101" s="3">
         <v>-500</v>
       </c>
       <c r="N101" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="O101" s="3">
         <v>-1200</v>
       </c>
       <c r="P101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-11700</v>
-      </c>
       <c r="H102" s="3">
-        <v>-15800</v>
+        <v>-11600</v>
       </c>
       <c r="I102" s="3">
-        <v>15900</v>
+        <v>-15700</v>
       </c>
       <c r="J102" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>137800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="H29" s="3">
         <v>200</v>
       </c>
       <c r="I29" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="J29" s="3">
         <v>-800</v>
@@ -2065,7 +2065,7 @@
         <v>23200</v>
       </c>
       <c r="E41" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="F41" s="3">
         <v>23600</v>
@@ -2297,13 +2297,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="E46" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F46" s="3">
         <v>23800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>23900</v>
       </c>
       <c r="G46" s="3">
         <v>24000</v>
@@ -2312,10 +2312,10 @@
         <v>23800</v>
       </c>
       <c r="I46" s="3">
-        <v>56700</v>
+        <v>56600</v>
       </c>
       <c r="J46" s="3">
-        <v>67100</v>
+        <v>67000</v>
       </c>
       <c r="K46" s="3">
         <v>73400</v>
@@ -2679,19 +2679,19 @@
         <v>23800</v>
       </c>
       <c r="F54" s="3">
-        <v>24000</v>
+        <v>23900</v>
       </c>
       <c r="G54" s="3">
-        <v>24200</v>
+        <v>24100</v>
       </c>
       <c r="H54" s="3">
         <v>38900</v>
       </c>
       <c r="I54" s="3">
-        <v>72300</v>
+        <v>72200</v>
       </c>
       <c r="J54" s="3">
-        <v>83200</v>
+        <v>83100</v>
       </c>
       <c r="K54" s="3">
         <v>100500</v>
@@ -3438,7 +3438,7 @@
         <v>18800</v>
       </c>
       <c r="E72" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="F72" s="3">
         <v>19300</v>
@@ -3447,13 +3447,13 @@
         <v>19400</v>
       </c>
       <c r="H72" s="3">
-        <v>33800</v>
+        <v>33700</v>
       </c>
       <c r="I72" s="3">
-        <v>67300</v>
+        <v>67200</v>
       </c>
       <c r="J72" s="3">
-        <v>78200</v>
+        <v>78100</v>
       </c>
       <c r="K72" s="3">
         <v>96600</v>
@@ -3632,7 +3632,7 @@
         <v>22600</v>
       </c>
       <c r="G76" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="H76" s="3">
         <v>37100</v>
@@ -3641,7 +3641,7 @@
         <v>70600</v>
       </c>
       <c r="J76" s="3">
-        <v>81600</v>
+        <v>81500</v>
       </c>
       <c r="K76" s="3">
         <v>99100</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>41800</v>
+        <v>41700</v>
       </c>
       <c r="H94" s="3">
         <v>21200</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-53100</v>
+        <v>-53000</v>
       </c>
       <c r="H96" s="3">
-        <v>-32400</v>
+        <v>-32300</v>
       </c>
       <c r="I96" s="3">
         <v>-51800</v>
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-53100</v>
+        <v>-53000</v>
       </c>
       <c r="H100" s="3">
-        <v>-32400</v>
+        <v>-32300</v>
       </c>
       <c r="I100" s="3">
         <v>-51800</v>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -1232,7 +1232,7 @@
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
@@ -1408,10 +1408,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
@@ -1846,7 +1846,7 @@
         <v>-1100</v>
       </c>
       <c r="I33" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="J33" s="3">
         <v>1400</v>
@@ -1940,7 +1940,7 @@
         <v>-1100</v>
       </c>
       <c r="I35" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="J35" s="3">
         <v>1400</v>
@@ -2062,25 +2062,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="E41" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="F41" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="G41" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="H41" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="I41" s="3">
-        <v>35000</v>
+        <v>34800</v>
       </c>
       <c r="J41" s="3">
-        <v>66500</v>
+        <v>66200</v>
       </c>
       <c r="K41" s="3">
         <v>50900</v>
@@ -2265,7 +2265,7 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -2297,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="E46" s="3">
         <v>23700</v>
@@ -2306,16 +2306,16 @@
         <v>23800</v>
       </c>
       <c r="G46" s="3">
-        <v>24000</v>
+        <v>23900</v>
       </c>
       <c r="H46" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="I46" s="3">
-        <v>56600</v>
+        <v>56400</v>
       </c>
       <c r="J46" s="3">
-        <v>67000</v>
+        <v>66800</v>
       </c>
       <c r="K46" s="3">
         <v>73400</v>
@@ -2594,7 +2594,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2673,25 +2673,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="E54" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F54" s="3">
         <v>23800</v>
       </c>
-      <c r="F54" s="3">
-        <v>23900</v>
-      </c>
       <c r="G54" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="H54" s="3">
-        <v>38900</v>
+        <v>38700</v>
       </c>
       <c r="I54" s="3">
-        <v>72200</v>
+        <v>72000</v>
       </c>
       <c r="J54" s="3">
-        <v>83100</v>
+        <v>82800</v>
       </c>
       <c r="K54" s="3">
         <v>100500</v>
@@ -3435,25 +3435,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="E72" s="3">
         <v>18900</v>
       </c>
       <c r="F72" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G72" s="3">
         <v>19300</v>
       </c>
-      <c r="G72" s="3">
-        <v>19400</v>
-      </c>
       <c r="H72" s="3">
-        <v>33700</v>
+        <v>33600</v>
       </c>
       <c r="I72" s="3">
-        <v>67200</v>
+        <v>67000</v>
       </c>
       <c r="J72" s="3">
-        <v>78100</v>
+        <v>77800</v>
       </c>
       <c r="K72" s="3">
         <v>96600</v>
@@ -3623,25 +3623,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="E76" s="3">
-        <v>22300</v>
+        <v>22200</v>
       </c>
       <c r="F76" s="3">
-        <v>22600</v>
+        <v>22500</v>
       </c>
       <c r="G76" s="3">
         <v>22700</v>
       </c>
       <c r="H76" s="3">
-        <v>37100</v>
+        <v>36900</v>
       </c>
       <c r="I76" s="3">
-        <v>70600</v>
+        <v>70300</v>
       </c>
       <c r="J76" s="3">
-        <v>81500</v>
+        <v>81200</v>
       </c>
       <c r="K76" s="3">
         <v>99100</v>
@@ -3784,7 +3784,7 @@
         <v>-1100</v>
       </c>
       <c r="I81" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="J81" s="3">
         <v>1400</v>
@@ -4333,16 +4333,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="H94" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="I94" s="3">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="J94" s="3">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="K94" s="3">
         <v>-2900</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-53000</v>
+        <v>-52900</v>
       </c>
       <c r="H96" s="3">
-        <v>-32300</v>
+        <v>-32200</v>
       </c>
       <c r="I96" s="3">
-        <v>-51800</v>
+        <v>-51600</v>
       </c>
       <c r="J96" s="3">
-        <v>-19400</v>
+        <v>-19300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4587,16 +4587,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-53000</v>
+        <v>-52900</v>
       </c>
       <c r="H100" s="3">
-        <v>-32300</v>
+        <v>-32200</v>
       </c>
       <c r="I100" s="3">
-        <v>-51800</v>
+        <v>-51600</v>
       </c>
       <c r="J100" s="3">
-        <v>-19400</v>
+        <v>-19300</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4687,10 +4687,10 @@
         <v>-11600</v>
       </c>
       <c r="I102" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="J102" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="K102" s="3">
         <v>-6000</v>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,11 +752,11 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -773,19 +777,22 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>50800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39400</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,20 +826,23 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>36800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>33700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,20 +876,23 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>14000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-30400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -897,8 +910,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,8 +1008,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,26 +1025,26 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,10 +1056,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,8 +1108,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,55 +1127,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
-        <v>1500</v>
-      </c>
       <c r="I17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J17" s="3">
         <v>-700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,46 +1187,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1500</v>
-      </c>
       <c r="I18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,8 +1247,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1225,44 +1259,47 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,46 +1307,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1343,8 +1383,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1355,60 +1395,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1417,40 +1463,43 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,8 +1545,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1505,46 +1557,49 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1552,46 +1607,49 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,55 +1695,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>6800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>200</v>
       </c>
-      <c r="I29" s="3">
-        <v>22000</v>
-      </c>
       <c r="J29" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>17800</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>75100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>13300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,8 +1845,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1789,44 +1859,47 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1834,46 +1907,49 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,8 +1995,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1928,98 +2007,104 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2142,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23100</v>
+        <v>12600</v>
       </c>
       <c r="E41" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F41" s="3">
         <v>23300</v>
       </c>
-      <c r="F41" s="3">
-        <v>23500</v>
-      </c>
       <c r="G41" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="H41" s="3">
-        <v>23300</v>
+        <v>23600</v>
       </c>
       <c r="I41" s="3">
-        <v>34800</v>
+        <v>23200</v>
       </c>
       <c r="J41" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K41" s="3">
         <v>66200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>208500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>70500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,8 +2240,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2179,26 +2272,29 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2229,23 +2325,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>11000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,93 +2352,99 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
-        <v>21600</v>
-      </c>
       <c r="J45" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G46" s="3">
         <v>23700</v>
       </c>
-      <c r="F46" s="3">
-        <v>23800</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23900</v>
       </c>
-      <c r="H46" s="3">
-        <v>23700</v>
-      </c>
       <c r="I46" s="3">
-        <v>56400</v>
+        <v>23600</v>
       </c>
       <c r="J46" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K46" s="3">
         <v>66800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>58000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>275100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>126400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2385,8 +2490,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2400,40 +2508,43 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
-        <v>13400</v>
-      </c>
       <c r="I48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>38700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>41100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2450,28 +2561,28 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2300</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
@@ -2479,8 +2590,11 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,8 +2690,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2587,41 +2707,44 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>15400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23500</v>
+        <v>13000</v>
       </c>
       <c r="E54" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="F54" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G54" s="3">
         <v>23800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24000</v>
       </c>
-      <c r="H54" s="3">
-        <v>38700</v>
-      </c>
       <c r="I54" s="3">
-        <v>72000</v>
+        <v>38600</v>
       </c>
       <c r="J54" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K54" s="3">
         <v>82800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>102400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>318000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>175400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>172200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,8 +2882,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,46 +2892,49 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>14800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2831,23 +2965,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2867,34 +3004,37 @@
         <v>1200</v>
       </c>
       <c r="I59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>164500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2905,43 +3045,46 @@
         <v>1500</v>
       </c>
       <c r="F60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1700</v>
       </c>
       <c r="J60" s="3">
         <v>1700</v>
       </c>
       <c r="K60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L60" s="3">
         <v>1400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1500</v>
       </c>
       <c r="M60" s="3">
         <v>1500</v>
       </c>
       <c r="N60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O60" s="3">
         <v>182400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2987,8 +3130,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3034,8 +3180,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,8 +3330,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3187,43 +3345,46 @@
         <v>1500</v>
       </c>
       <c r="F66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1700</v>
       </c>
       <c r="J66" s="3">
         <v>1700</v>
       </c>
       <c r="K66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L66" s="3">
         <v>1400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1500</v>
       </c>
       <c r="M66" s="3">
         <v>1500</v>
       </c>
       <c r="N66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O66" s="3">
         <v>182400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E72" s="3">
         <v>18700</v>
       </c>
-      <c r="E72" s="3">
-        <v>18900</v>
-      </c>
       <c r="F72" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="G72" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H72" s="3">
         <v>19300</v>
       </c>
-      <c r="H72" s="3">
-        <v>33600</v>
-      </c>
       <c r="I72" s="3">
-        <v>67000</v>
+        <v>33500</v>
       </c>
       <c r="J72" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K72" s="3">
         <v>77800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>96600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>98200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>133000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>126900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>120200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E76" s="3">
         <v>22000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22500</v>
       </c>
-      <c r="G76" s="3">
-        <v>22700</v>
-      </c>
       <c r="H76" s="3">
-        <v>36900</v>
+        <v>22600</v>
       </c>
       <c r="I76" s="3">
-        <v>70300</v>
+        <v>36800</v>
       </c>
       <c r="J76" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K76" s="3">
         <v>81200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>99100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>135600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>130000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>123300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,60 +3900,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3772,46 +3967,49 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,8 +4027,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3847,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -3862,22 +4061,25 @@
         <v>600</v>
       </c>
       <c r="M83" s="3">
+        <v>600</v>
+      </c>
+      <c r="N83" s="3">
         <v>-4500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4325,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>3300</v>
-      </c>
       <c r="J89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,55 +4397,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,8 +4545,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4333,40 +4563,43 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>41600</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>41500</v>
+      </c>
+      <c r="I94" s="3">
         <v>21100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>31800</v>
       </c>
       <c r="J94" s="3">
         <v>31800</v>
       </c>
       <c r="K94" s="3">
+        <v>31800</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>89500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>128900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4617,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4399,40 +4633,43 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-52900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-32200</v>
+        <v>-52700</v>
       </c>
       <c r="I96" s="3">
-        <v>-51600</v>
+        <v>-32100</v>
       </c>
       <c r="J96" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-19500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-105400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,63 +4815,69 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-52900</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-32200</v>
+        <v>-52700</v>
       </c>
       <c r="I100" s="3">
-        <v>-51600</v>
+        <v>-32100</v>
       </c>
       <c r="J100" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-19300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-19500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-106700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4640,77 +4889,83 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>900</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-500</v>
       </c>
       <c r="N101" s="3">
         <v>-500</v>
       </c>
       <c r="O101" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="P101" s="3">
         <v>-1200</v>
       </c>
       <c r="Q101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-11200</v>
-      </c>
       <c r="H102" s="3">
-        <v>-11600</v>
+        <v>-11100</v>
       </c>
       <c r="I102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-15600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>137800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,11 +759,11 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -780,19 +784,22 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>50800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>47200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39400</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,20 +836,23 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>36800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>33700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,20 +889,23 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>14000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-30400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +924,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -961,8 +975,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,13 +1028,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1028,26 +1048,26 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1059,10 +1079,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,8 +1134,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1128,8 +1154,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,49 +1164,52 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,49 +1217,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,8 +1281,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,44 +1296,47 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,49 +1344,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1386,8 +1426,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1398,8 +1438,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1407,49 +1450,52 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1503,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1466,40 +1512,43 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,8 +1597,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1560,46 +1612,49 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1610,46 +1665,49 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1698,58 +1756,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>6800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>21900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>17800</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>75100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>13300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1862,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1848,8 +1915,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1862,44 +1932,47 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1910,46 +1983,49 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1998,8 +2074,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2010,101 +2089,107 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2208,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2143,58 +2229,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E41" s="3">
         <v>12600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23400</v>
       </c>
-      <c r="H41" s="3">
-        <v>23600</v>
-      </c>
       <c r="I41" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J41" s="3">
         <v>23200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>208500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>70500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2243,8 +2333,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2275,26 +2368,29 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>46400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2328,23 +2424,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>11000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2355,96 +2454,102 @@
         <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E46" s="3">
         <v>13000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>58000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>275100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>131800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>126400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2493,8 +2598,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2511,40 +2619,43 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>38700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>41100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2564,28 +2675,28 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -2593,8 +2704,11 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2643,8 +2757,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2693,8 +2810,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2710,41 +2830,44 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>15400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2793,58 +2916,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E54" s="3">
         <v>13000</v>
       </c>
-      <c r="E54" s="3">
-        <v>23400</v>
-      </c>
       <c r="F54" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="G54" s="3">
+        <v>23700</v>
+      </c>
+      <c r="H54" s="3">
         <v>23800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>71800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>318000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>175400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>172200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2863,8 +2992,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2883,8 +3013,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,46 +3026,49 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>14800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2968,37 +3102,40 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1300</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
       </c>
       <c r="G59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>1200</v>
@@ -3007,39 +3144,42 @@
         <v>1200</v>
       </c>
       <c r="J59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>164500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
         <v>1500</v>
@@ -3048,43 +3188,46 @@
         <v>1500</v>
       </c>
       <c r="G60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>1700</v>
       </c>
       <c r="L60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M60" s="3">
         <v>1400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1500</v>
       </c>
       <c r="N60" s="3">
         <v>1500</v>
       </c>
       <c r="O60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P60" s="3">
         <v>182400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3133,8 +3276,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3183,8 +3329,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3382,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3435,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3333,13 +3488,16 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="3">
         <v>1500</v>
@@ -3348,43 +3506,46 @@
         <v>1500</v>
       </c>
       <c r="G66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1700</v>
       </c>
       <c r="K66" s="3">
         <v>1700</v>
       </c>
       <c r="L66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1500</v>
       </c>
       <c r="N66" s="3">
         <v>1500</v>
       </c>
       <c r="O66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="3">
         <v>182400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>45300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3403,8 +3564,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3615,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3503,8 +3668,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3553,8 +3721,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3603,58 +3774,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18800</v>
       </c>
-      <c r="G72" s="3">
-        <v>19100</v>
-      </c>
       <c r="H72" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I72" s="3">
         <v>19300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>66800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>77800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>96600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>98200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>133000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>126900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>120200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +3880,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3753,8 +3933,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3803,58 +3986,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E76" s="3">
         <v>11500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22600</v>
       </c>
-      <c r="I76" s="3">
-        <v>36800</v>
-      </c>
       <c r="J76" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K76" s="3">
         <v>70100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>81200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>99100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>80900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>135600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>130000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>123300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,63 +4092,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3970,46 +4165,49 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4028,8 +4226,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4049,13 +4248,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
@@ -4064,22 +4263,25 @@
         <v>600</v>
       </c>
       <c r="N83" s="3">
+        <v>600</v>
+      </c>
+      <c r="O83" s="3">
         <v>-4500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4128,8 +4330,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4178,8 +4383,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4436,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4489,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,8 +4542,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,49 +4554,52 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4398,8 +4618,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4424,32 +4645,35 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +4722,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4548,13 +4775,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4566,40 +4796,43 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>41500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>31800</v>
       </c>
       <c r="K94" s="3">
         <v>31800</v>
       </c>
       <c r="L94" s="3">
+        <v>31800</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>89500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>128900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4618,8 +4851,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4636,40 +4870,43 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-52700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-32100</v>
-      </c>
       <c r="J96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-51400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-19500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-105400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4718,8 +4955,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4768,8 +5008,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4818,8 +5061,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4829,47 +5075,50 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-52700</v>
       </c>
-      <c r="I100" s="3">
-        <v>-32100</v>
-      </c>
       <c r="J100" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-51400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-19500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-106700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4879,8 +5128,8 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4892,80 +5141,86 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>900</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-500</v>
       </c>
       <c r="O101" s="3">
         <v>-500</v>
       </c>
       <c r="P101" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="Q101" s="3">
         <v>-1200</v>
       </c>
       <c r="R101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-11500</v>
-      </c>
       <c r="J102" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-15600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>137800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -2251,7 +2251,7 @@
         <v>23400</v>
       </c>
       <c r="I41" s="3">
-        <v>23700</v>
+        <v>23600</v>
       </c>
       <c r="J41" s="3">
         <v>23200</v>
@@ -2931,7 +2931,7 @@
         <v>13000</v>
       </c>
       <c r="F54" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="G54" s="3">
         <v>23700</v>
@@ -3795,7 +3795,7 @@
         <v>18800</v>
       </c>
       <c r="H72" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="I72" s="3">
         <v>19300</v>
@@ -4013,7 +4013,7 @@
         <v>22600</v>
       </c>
       <c r="J76" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="K76" s="3">
         <v>70100</v>
@@ -4876,7 +4876,7 @@
         <v>-52700</v>
       </c>
       <c r="J96" s="3">
-        <v>-32200</v>
+        <v>-32100</v>
       </c>
       <c r="K96" s="3">
         <v>-51400</v>
@@ -5088,7 +5088,7 @@
         <v>-52700</v>
       </c>
       <c r="J100" s="3">
-        <v>-32200</v>
+        <v>-32100</v>
       </c>
       <c r="K100" s="3">
         <v>-51400</v>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42460</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +766,8 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -787,19 +791,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>50800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>47200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39400</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,20 +846,23 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>36800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>33700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,20 +902,23 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>14000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-30400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -978,8 +992,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1031,16 +1048,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1051,26 +1071,26 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1082,10 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,8 +1160,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1155,61 +1181,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1220,49 +1250,52 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1282,8 +1315,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,44 +1333,47 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1347,72 +1384,75 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1429,8 +1469,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1441,61 +1481,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1552,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1515,40 +1561,43 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1600,13 +1649,16 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1615,51 +1667,54 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -1668,46 +1723,49 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1759,61 +1817,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>6800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>21900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>17800</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>75100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>13300</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1865,8 +1929,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1918,8 +1985,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1935,49 +2005,52 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -1986,46 +2059,49 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2077,13 +2153,16 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2092,104 +2171,110 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42460</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2209,8 +2294,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2230,61 +2316,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E41" s="3">
         <v>12400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12600</v>
       </c>
-      <c r="F41" s="3">
-        <v>23000</v>
-      </c>
       <c r="G41" s="3">
+        <v>23100</v>
+      </c>
+      <c r="H41" s="3">
         <v>23300</v>
       </c>
-      <c r="H41" s="3">
-        <v>23400</v>
-      </c>
       <c r="I41" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="J41" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>62700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>208500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>69900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>70500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2336,8 +2426,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2371,26 +2464,29 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>46400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>38900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2427,28 +2523,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>11000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -2457,99 +2556,105 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="E46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F46" s="3">
         <v>13000</v>
       </c>
-      <c r="F46" s="3">
-        <v>23400</v>
-      </c>
       <c r="G46" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="H46" s="3">
         <v>23700</v>
       </c>
       <c r="I46" s="3">
+        <v>23800</v>
+      </c>
+      <c r="J46" s="3">
         <v>23900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>66800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>58000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>275100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>131800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>126400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2601,8 +2706,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2622,40 +2730,43 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>39100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>41100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2678,28 +2789,28 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
+        <v>100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -2707,8 +2818,11 @@
       <c r="S49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2760,8 +2874,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2813,61 +2930,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>15400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2919,61 +3042,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E54" s="3">
         <v>12900</v>
       </c>
-      <c r="E54" s="3">
-        <v>13000</v>
-      </c>
       <c r="F54" s="3">
-        <v>23400</v>
+        <v>13100</v>
       </c>
       <c r="G54" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H54" s="3">
         <v>23700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>318000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>175400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>172200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2993,8 +3122,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3014,8 +3144,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,46 +3160,49 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>14800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3105,23 +3239,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,52 +3266,55 @@
         <v>1500</v>
       </c>
       <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>164500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3182,52 +3322,55 @@
         <v>1600</v>
       </c>
       <c r="E60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G60" s="3">
         <v>1500</v>
       </c>
       <c r="H60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1700</v>
       </c>
       <c r="L60" s="3">
         <v>1700</v>
       </c>
       <c r="M60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N60" s="3">
         <v>1400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1500</v>
       </c>
       <c r="O60" s="3">
         <v>1500</v>
       </c>
       <c r="P60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>182400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3279,8 +3422,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3332,8 +3478,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3385,8 +3534,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3438,8 +3590,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3491,8 +3646,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3500,52 +3658,55 @@
         <v>1600</v>
       </c>
       <c r="E66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G66" s="3">
         <v>1500</v>
       </c>
       <c r="H66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1700</v>
       </c>
       <c r="L66" s="3">
         <v>1700</v>
       </c>
       <c r="M66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N66" s="3">
         <v>1400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1500</v>
       </c>
       <c r="O66" s="3">
         <v>1500</v>
       </c>
       <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>182400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3565,8 +3726,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3618,8 +3780,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3671,8 +3836,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3724,8 +3892,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3777,61 +3948,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E72" s="3">
         <v>8000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18700</v>
       </c>
-      <c r="G72" s="3">
-        <v>18800</v>
-      </c>
       <c r="H72" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="I72" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J72" s="3">
         <v>19300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>33500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>66800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>77800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>96600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>78400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>98200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>133000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>126900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>120200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3883,8 +4060,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3936,8 +4116,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3989,61 +4172,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E76" s="3">
         <v>11300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22500</v>
       </c>
-      <c r="I76" s="3">
-        <v>22600</v>
-      </c>
       <c r="J76" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K76" s="3">
         <v>36800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>70100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>81200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>99100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>80900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>135600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>130000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>123300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4095,71 +4284,77 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42460</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -4168,46 +4363,49 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4227,8 +4425,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4251,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
@@ -4266,22 +4465,25 @@
         <v>600</v>
       </c>
       <c r="O83" s="3">
+        <v>600</v>
+      </c>
+      <c r="P83" s="3">
         <v>-4500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4333,8 +4535,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4386,8 +4591,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4439,8 +4647,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4492,8 +4703,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4545,61 +4759,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4619,22 +4839,23 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-25700</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-23200</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-36500</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-36500</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4648,32 +4869,35 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4725,8 +4949,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4778,16 +5005,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4799,40 +5029,43 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>41500</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K94" s="3">
         <v>21100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>31800</v>
       </c>
       <c r="L94" s="3">
         <v>31800</v>
       </c>
       <c r="M94" s="3">
+        <v>31800</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>13600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>89500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>128900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4852,8 +5085,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4873,40 +5107,43 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-52700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-32100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-51400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-19300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-19500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-105400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4958,8 +5195,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5011,8 +5251,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5064,13 +5307,16 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
@@ -5078,58 +5324,61 @@
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-52700</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-32100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-51400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-19500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-106700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5144,83 +5393,89 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>900</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-500</v>
       </c>
       <c r="P101" s="3">
         <v>-500</v>
       </c>
       <c r="Q101" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="R101" s="3">
         <v>-1200</v>
       </c>
       <c r="S101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>-10400</v>
-      </c>
       <c r="F102" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-11100</v>
-      </c>
       <c r="J102" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>137800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1490,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1658,7 +1658,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1714,7 +1714,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2050,7 +2050,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2162,7 +2162,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2332,13 +2332,13 @@
         <v>12600</v>
       </c>
       <c r="G41" s="3">
-        <v>23100</v>
+        <v>23000</v>
       </c>
       <c r="H41" s="3">
         <v>23300</v>
       </c>
       <c r="I41" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="J41" s="3">
         <v>23700</v>
@@ -2603,22 +2603,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="E46" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="F46" s="3">
         <v>13000</v>
       </c>
       <c r="G46" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="H46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I46" s="3">
         <v>23700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>23800</v>
       </c>
       <c r="J46" s="3">
         <v>23900</v>
@@ -3057,7 +3057,7 @@
         <v>12900</v>
       </c>
       <c r="F54" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="G54" s="3">
         <v>23500</v>
@@ -3272,13 +3272,13 @@
         <v>1400</v>
       </c>
       <c r="G59" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
       </c>
       <c r="I59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
@@ -3325,7 +3325,7 @@
         <v>1600</v>
       </c>
       <c r="F60" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G60" s="3">
         <v>1500</v>
@@ -3661,7 +3661,7 @@
         <v>1600</v>
       </c>
       <c r="F66" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>1500</v>
@@ -3969,7 +3969,7 @@
         <v>18700</v>
       </c>
       <c r="H72" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="I72" s="3">
         <v>19200</v>
@@ -4199,7 +4199,7 @@
         <v>22500</v>
       </c>
       <c r="J76" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="K76" s="3">
         <v>36800</v>
@@ -4354,7 +4354,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -4768,7 +4768,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -5013,8 +5013,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>41600</v>
+        <v>41500</v>
       </c>
       <c r="K94" s="3">
         <v>21100</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-52900</v>
+        <v>-52800</v>
       </c>
       <c r="K96" s="3">
         <v>-32100</v>
@@ -5315,8 +5315,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-52900</v>
+        <v>-52800</v>
       </c>
       <c r="K100" s="3">
         <v>-32100</v>
@@ -5428,7 +5428,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
@@ -5446,7 +5446,7 @@
         <v>-200</v>
       </c>
       <c r="J102" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="K102" s="3">
         <v>-11600</v>

--- a/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLTYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>PLTYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42460</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,19 +798,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>50800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>47200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39400</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,20 +856,23 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>36800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>27700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,20 +915,23 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>14000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-30400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,8 +952,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -995,8 +1009,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,19 +1068,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1074,26 +1094,26 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1105,10 +1125,13 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,8 +1186,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1182,8 +1208,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1197,49 +1224,52 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>37700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>32300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1253,49 +1283,52 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,8 +1349,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1337,43 +1371,46 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,55 +1418,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1454,8 +1494,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1472,8 +1512,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1484,64 +1524,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1555,7 +1601,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1564,40 +1610,43 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1652,13 +1701,16 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1670,51 +1722,54 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -1726,46 +1781,49 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,8 +1878,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,53 +1892,56 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>6800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>21900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>17800</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>75100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>13300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1932,8 +1996,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1988,8 +2055,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2009,48 +2079,51 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2062,46 +2135,49 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>75100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2156,13 +2232,16 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2174,107 +2253,113 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>75100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42460</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2295,8 +2380,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2317,8 +2403,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2326,55 +2413,58 @@
         <v>12200</v>
       </c>
       <c r="E41" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="F41" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="G41" s="3">
-        <v>23000</v>
+        <v>12700</v>
       </c>
       <c r="H41" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="I41" s="3">
         <v>23400</v>
       </c>
       <c r="J41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K41" s="3">
         <v>23700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>62700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>208500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>69900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>70500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2429,8 +2519,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2467,26 +2560,29 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>46400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,23 +2622,26 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>11000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,7 +2649,7 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
@@ -2559,102 +2658,108 @@
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="E46" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="F46" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="G46" s="3">
-        <v>23400</v>
+        <v>13100</v>
       </c>
       <c r="H46" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="I46" s="3">
         <v>23700</v>
       </c>
       <c r="J46" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K46" s="3">
         <v>23900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>66800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>73400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>58000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>80300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>275100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>131800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>126400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2709,13 +2814,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2733,40 +2841,43 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>38700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>39100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>41100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2792,28 +2903,28 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
@@ -2821,8 +2932,11 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2877,8 +2991,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2933,8 +3050,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2959,38 +3079,41 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>15400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3045,64 +3168,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="E54" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="F54" s="3">
         <v>13000</v>
       </c>
       <c r="G54" s="3">
-        <v>23500</v>
+        <v>13100</v>
       </c>
       <c r="H54" s="3">
-        <v>23700</v>
+        <v>23600</v>
       </c>
       <c r="I54" s="3">
         <v>23800</v>
       </c>
       <c r="J54" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K54" s="3">
         <v>24000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>102400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>318000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>175400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>172200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3123,8 +3252,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3145,8 +3275,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3163,46 +3294,49 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>14800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3242,135 +3376,144 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
         <v>1500</v>
       </c>
       <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
       </c>
       <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>164500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E60" s="3">
         <v>1600</v>
       </c>
       <c r="F60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H60" s="3">
         <v>1500</v>
       </c>
       <c r="I60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1700</v>
       </c>
       <c r="M60" s="3">
         <v>1700</v>
       </c>
       <c r="N60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O60" s="3">
         <v>1400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1500</v>
       </c>
       <c r="P60" s="3">
         <v>1500</v>
       </c>
       <c r="Q60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R60" s="3">
         <v>182400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3425,8 +3568,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3481,8 +3627,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3537,8 +3686,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3593,8 +3745,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3649,64 +3804,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
         <v>1600</v>
       </c>
       <c r="F66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H66" s="3">
         <v>1500</v>
       </c>
       <c r="I66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1700</v>
       </c>
       <c r="M66" s="3">
         <v>1700</v>
       </c>
       <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
         <v>1400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1500</v>
       </c>
       <c r="P66" s="3">
         <v>1500</v>
       </c>
       <c r="Q66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R66" s="3">
         <v>182400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3727,8 +3888,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3783,8 +3945,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3839,8 +4004,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3895,8 +4063,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3951,8 +4122,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3960,55 +4134,58 @@
         <v>7800</v>
       </c>
       <c r="E72" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F72" s="3">
         <v>8000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>18700</v>
       </c>
       <c r="H72" s="3">
         <v>18800</v>
       </c>
       <c r="I72" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="J72" s="3">
         <v>19300</v>
       </c>
       <c r="K72" s="3">
+        <v>19300</v>
+      </c>
+      <c r="L72" s="3">
         <v>33500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>66800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>77800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>96600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>78400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>98200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>133000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>126900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>120200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4063,8 +4240,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4119,8 +4299,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4175,8 +4358,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4184,55 +4370,58 @@
         <v>11100</v>
       </c>
       <c r="E76" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F76" s="3">
         <v>11300</v>
       </c>
-      <c r="F76" s="3">
-        <v>11500</v>
-      </c>
       <c r="G76" s="3">
-        <v>22000</v>
+        <v>11600</v>
       </c>
       <c r="H76" s="3">
-        <v>22200</v>
+        <v>22100</v>
       </c>
       <c r="I76" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="J76" s="3">
         <v>22600</v>
       </c>
       <c r="K76" s="3">
+        <v>22600</v>
+      </c>
+      <c r="L76" s="3">
         <v>36800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>81200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>99100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>80900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>135600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>130000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>123300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>120400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4287,74 +4476,80 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42460</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -4366,46 +4561,49 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>75100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4426,13 +4624,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4453,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>600</v>
@@ -4468,22 +4667,25 @@
         <v>600</v>
       </c>
       <c r="P83" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4538,8 +4740,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4594,8 +4799,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4650,8 +4858,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4706,8 +4917,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4762,13 +4976,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -4777,49 +4994,52 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4840,8 +5060,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4855,7 +5076,7 @@
         <v>-36500</v>
       </c>
       <c r="G91" s="3">
-        <v>-36500</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4872,32 +5093,35 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4952,8 +5176,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5008,8 +5235,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5019,8 +5249,8 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5032,40 +5262,43 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>41500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>31800</v>
       </c>
       <c r="M94" s="3">
         <v>31800</v>
       </c>
       <c r="N94" s="3">
+        <v>31800</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>13600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>89500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>128900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5086,8 +5319,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5110,40 +5344,43 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-52800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-32100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-51400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-19300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-19500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-105400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5198,8 +5435,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5254,8 +5494,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5310,8 +5553,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5327,47 +5573,50 @@
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-52800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-51400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-19500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-106700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5396,86 +5645,92 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>900</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-500</v>
       </c>
       <c r="Q101" s="3">
         <v>-500</v>
       </c>
       <c r="R101" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="S101" s="3">
         <v>-1200</v>
       </c>
       <c r="T101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>137800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6800</v>
       </c>
     </row>
